--- a/notebooks/2023-2024-1st_Quarter_extracted.xlsx
+++ b/notebooks/2023-2024-1st_Quarter_extracted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariapalacios-ricaldi/Documents/GitHub/MiBarrio-Web-App/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F45BAE7-9568-934D-83B5-6DB8E4DDCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C3B95-5C3D-C342-A917-93390AD33AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="500" windowWidth="24640" windowHeight="16360" xr2:uid="{16614EBD-92CD-8245-9D53-532846811489}"/>
+    <workbookView xWindow="3740" yWindow="500" windowWidth="24640" windowHeight="16340" xr2:uid="{16614EBD-92CD-8245-9D53-532846811489}"/>
   </bookViews>
   <sheets>
     <sheet name="1st_Quarter" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>FRESNAYE</t>
   </si>
   <si>
-    <t>GOODWOOD  EXT 1</t>
-  </si>
-  <si>
     <t>PAROW VALLEY</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>GOODWOOD EXT 1</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,39 +759,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>297</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>163</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>287</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>76</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>280</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>280</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>114</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>114</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>280</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>291</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>291</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>291</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>291</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>72</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>423</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>94</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>81</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>163</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>163</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>163</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>265</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35">
         <v>573</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>18</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B37">
         <v>227</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>227</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>76</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>148</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41">
         <v>185</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>94</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>423</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>138</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>616</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>618</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>265</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>265</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <v>265</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>185</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>89</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>148</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>122</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>423</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>423</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>423</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>49</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>185</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63">
         <v>94</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64">
         <v>27</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>182</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66">
         <v>280</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>573</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>89</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69">
         <v>287</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>291</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71">
         <v>287</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>287</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74">
         <v>287</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>287</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77">
         <v>42</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>287</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79">
         <v>287</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80">
         <v>287</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81">
         <v>287</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83">
         <v>39</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>39</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85">
         <v>49</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87">
         <v>18</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>76</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89">
         <v>18</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <v>185</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <v>265</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92">
         <v>423</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>291</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95">
         <v>56</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97">
         <v>280</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99">
         <v>280</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100">
         <v>182</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101">
         <v>144</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B102">
         <v>144</v>
